--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd84-Cd84.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd84-Cd84.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2066323333333333</v>
+        <v>0.8247399999999999</v>
       </c>
       <c r="H2">
-        <v>0.619897</v>
+        <v>2.47422</v>
       </c>
       <c r="I2">
-        <v>0.0008322102283778431</v>
+        <v>0.00290110066097835</v>
       </c>
       <c r="J2">
-        <v>0.0008333368800845979</v>
+        <v>0.0029096007056883</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2066323333333333</v>
+        <v>0.8247399999999999</v>
       </c>
       <c r="N2">
-        <v>0.619897</v>
+        <v>2.47422</v>
       </c>
       <c r="O2">
-        <v>0.0008322102283778431</v>
+        <v>0.00290110066097835</v>
       </c>
       <c r="P2">
-        <v>0.0008333368800845979</v>
+        <v>0.0029096007056883</v>
       </c>
       <c r="Q2">
-        <v>0.04269692117877778</v>
+        <v>0.6801960675999998</v>
       </c>
       <c r="R2">
-        <v>0.384272290609</v>
+        <v>6.121764608399999</v>
       </c>
       <c r="S2">
-        <v>6.925738642167018E-07</v>
+        <v>8.416385045129019E-06</v>
       </c>
       <c r="T2">
-        <v>6.944503557091315E-07</v>
+        <v>8.465776266541853E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2066323333333333</v>
+        <v>0.8247399999999999</v>
       </c>
       <c r="H3">
-        <v>0.619897</v>
+        <v>2.47422</v>
       </c>
       <c r="I3">
-        <v>0.0008322102283778431</v>
+        <v>0.00290110066097835</v>
       </c>
       <c r="J3">
-        <v>0.0008333368800845979</v>
+        <v>0.0029096007056883</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.900838</v>
       </c>
       <c r="O3">
-        <v>0.001209372843732813</v>
+        <v>0.001056260848766244</v>
       </c>
       <c r="P3">
-        <v>0.001211010100680676</v>
+        <v>0.001059355627434439</v>
       </c>
       <c r="Q3">
-        <v>0.06204741929844445</v>
+        <v>0.2476523773733333</v>
       </c>
       <c r="R3">
-        <v>0.558426773686</v>
+        <v>2.22887139636</v>
       </c>
       <c r="S3">
-        <v>1.006452450476846E-06</v>
+        <v>3.064319046521302E-06</v>
       </c>
       <c r="T3">
-        <v>1.009179379052169E-06</v>
+        <v>3.082301881158114E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2066323333333333</v>
+        <v>0.8247399999999999</v>
       </c>
       <c r="H4">
-        <v>0.619897</v>
+        <v>2.47422</v>
       </c>
       <c r="I4">
-        <v>0.0008322102283778431</v>
+        <v>0.00290110066097835</v>
       </c>
       <c r="J4">
-        <v>0.0008333368800845979</v>
+        <v>0.0029096007056883</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>122.7966383333333</v>
+        <v>120.5783256666667</v>
       </c>
       <c r="N4">
-        <v>368.389915</v>
+        <v>361.734977</v>
       </c>
       <c r="O4">
-        <v>0.4945625729665479</v>
+        <v>0.4241456220035762</v>
       </c>
       <c r="P4">
-        <v>0.4952321150460967</v>
+        <v>0.4253883423266084</v>
       </c>
       <c r="Q4">
-        <v>25.37375590430611</v>
+        <v>99.44576831032666</v>
       </c>
       <c r="R4">
-        <v>228.363803138755</v>
+        <v>895.0119147929399</v>
       </c>
       <c r="S4">
-        <v>0.0004115800317956246</v>
+        <v>0.001230489144345648</v>
       </c>
       <c r="T4">
-        <v>0.0004126951856702108</v>
+        <v>0.001237710221025076</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2066323333333333</v>
+        <v>0.8247399999999999</v>
       </c>
       <c r="H5">
-        <v>0.619897</v>
+        <v>2.47422</v>
       </c>
       <c r="I5">
-        <v>0.0008322102283778431</v>
+        <v>0.00290110066097835</v>
       </c>
       <c r="J5">
-        <v>0.0008333368800845979</v>
+        <v>0.0029096007056883</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.0070605</v>
+        <v>2.491514</v>
       </c>
       <c r="N5">
-        <v>2.014121</v>
+        <v>4.983028</v>
       </c>
       <c r="O5">
-        <v>0.004055928881872173</v>
+        <v>0.008764135257459093</v>
       </c>
       <c r="P5">
-        <v>0.002707613216797097</v>
+        <v>0.005859875752869413</v>
       </c>
       <c r="Q5">
-        <v>0.2080912609228333</v>
+        <v>2.05485125636</v>
       </c>
       <c r="R5">
-        <v>1.248547565537</v>
+        <v>12.32910753816</v>
       </c>
       <c r="S5">
-        <v>3.375385501067131E-06</v>
+        <v>2.542563858831824E-05</v>
       </c>
       <c r="T5">
-        <v>2.256353950561515E-06</v>
+        <v>1.70498986257946E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2066323333333333</v>
+        <v>0.8247399999999999</v>
       </c>
       <c r="H6">
-        <v>0.619897</v>
+        <v>2.47422</v>
       </c>
       <c r="I6">
-        <v>0.0008322102283778431</v>
+        <v>0.00290110066097835</v>
       </c>
       <c r="J6">
-        <v>0.0008333368800845979</v>
+        <v>0.0029096007056883</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>123.982821</v>
+        <v>160.0903473333333</v>
       </c>
       <c r="N6">
-        <v>371.9484630000001</v>
+        <v>480.271042</v>
       </c>
       <c r="O6">
-        <v>0.4993399150794692</v>
+        <v>0.5631328812292201</v>
       </c>
       <c r="P6">
-        <v>0.500015924756341</v>
+        <v>0.5647828255873993</v>
       </c>
       <c r="Q6">
-        <v>25.618859596479</v>
+        <v>132.0329130596933</v>
       </c>
       <c r="R6">
-        <v>230.5697363683111</v>
+        <v>1188.29621753724</v>
       </c>
       <c r="S6">
-        <v>0.0004155557847664579</v>
+        <v>0.001633705173952733</v>
       </c>
       <c r="T6">
-        <v>0.0004166817107290643</v>
+        <v>0.001643292507889729</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.900838</v>
       </c>
       <c r="I7">
-        <v>0.001209372843732813</v>
+        <v>0.001056260848766244</v>
       </c>
       <c r="J7">
-        <v>0.001211010100680676</v>
+        <v>0.001059355627434439</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2066323333333333</v>
+        <v>0.8247399999999999</v>
       </c>
       <c r="N7">
-        <v>0.619897</v>
+        <v>2.47422</v>
       </c>
       <c r="O7">
-        <v>0.0008322102283778431</v>
+        <v>0.00290110066097835</v>
       </c>
       <c r="P7">
-        <v>0.0008333368800845979</v>
+        <v>0.0029096007056883</v>
       </c>
       <c r="Q7">
-        <v>0.06204741929844445</v>
+        <v>0.2476523773733333</v>
       </c>
       <c r="R7">
-        <v>0.558426773686</v>
+        <v>2.22887139636</v>
       </c>
       <c r="S7">
-        <v>1.006452450476846E-06</v>
+        <v>3.064319046521302E-06</v>
       </c>
       <c r="T7">
-        <v>1.009179379052169E-06</v>
+        <v>3.082301881158114E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.900838</v>
       </c>
       <c r="I8">
-        <v>0.001209372843732813</v>
+        <v>0.001056260848766244</v>
       </c>
       <c r="J8">
-        <v>0.001211010100680676</v>
+        <v>0.001059355627434439</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,10 +933,10 @@
         <v>0.900838</v>
       </c>
       <c r="O8">
-        <v>0.001209372843732813</v>
+        <v>0.001056260848766244</v>
       </c>
       <c r="P8">
-        <v>0.001211010100680676</v>
+        <v>0.001059355627434439</v>
       </c>
       <c r="Q8">
         <v>0.09016767802711112</v>
@@ -945,10 +945,10 @@
         <v>0.8115091022440001</v>
       </c>
       <c r="S8">
-        <v>1.46258267515839E-06</v>
+        <v>1.115686980636385E-06</v>
       </c>
       <c r="T8">
-        <v>1.466545463950621E-06</v>
+        <v>1.122234345377013E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.900838</v>
       </c>
       <c r="I9">
-        <v>0.001209372843732813</v>
+        <v>0.001056260848766244</v>
       </c>
       <c r="J9">
-        <v>0.001211010100680676</v>
+        <v>0.001059355627434439</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.7966383333333</v>
+        <v>120.5783256666667</v>
       </c>
       <c r="N9">
-        <v>368.389915</v>
+        <v>361.734977</v>
       </c>
       <c r="O9">
-        <v>0.4945625729665479</v>
+        <v>0.4241456220035762</v>
       </c>
       <c r="P9">
-        <v>0.4952321150460967</v>
+        <v>0.4253883423266084</v>
       </c>
       <c r="Q9">
-        <v>36.87329269430777</v>
+        <v>36.20717924563623</v>
       </c>
       <c r="R9">
-        <v>331.85963424877</v>
+        <v>325.864613210726</v>
       </c>
       <c r="S9">
-        <v>0.0005981105452723708</v>
+        <v>0.0004480084146979837</v>
       </c>
       <c r="T9">
-        <v>0.0005997310935022776</v>
+        <v>0.0004506375342887</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,10 +1039,10 @@
         <v>0.900838</v>
       </c>
       <c r="I10">
-        <v>0.001209372843732813</v>
+        <v>0.001056260848766244</v>
       </c>
       <c r="J10">
-        <v>0.001211010100680676</v>
+        <v>0.001059355627434439</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.0070605</v>
+        <v>2.491514</v>
       </c>
       <c r="N10">
-        <v>2.014121</v>
+        <v>4.983028</v>
       </c>
       <c r="O10">
-        <v>0.004055928881872173</v>
+        <v>0.008764135257459093</v>
       </c>
       <c r="P10">
-        <v>0.002707613216797097</v>
+        <v>0.005859875752869413</v>
       </c>
       <c r="Q10">
-        <v>0.3023994555663333</v>
+        <v>0.7481501629106667</v>
       </c>
       <c r="R10">
-        <v>1.814396733398</v>
+        <v>4.488900977464001</v>
       </c>
       <c r="S10">
-        <v>4.905130245847797E-06</v>
+        <v>9.257212945745902E-06</v>
       </c>
       <c r="T10">
-        <v>3.278946954277781E-06</v>
+        <v>6.207692354868831E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,10 +1101,10 @@
         <v>0.900838</v>
       </c>
       <c r="I11">
-        <v>0.001209372843732813</v>
+        <v>0.001056260848766244</v>
       </c>
       <c r="J11">
-        <v>0.001211010100680676</v>
+        <v>0.001059355627434439</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>123.982821</v>
+        <v>160.0903473333333</v>
       </c>
       <c r="N11">
-        <v>371.9484630000001</v>
+        <v>480.271042</v>
       </c>
       <c r="O11">
-        <v>0.4993399150794692</v>
+        <v>0.5631328812292201</v>
       </c>
       <c r="P11">
-        <v>0.500015924756341</v>
+        <v>0.5647828255873993</v>
       </c>
       <c r="Q11">
-        <v>37.229478834666</v>
+        <v>48.07182277035511</v>
       </c>
       <c r="R11">
-        <v>335.0653095119941</v>
+        <v>432.646404933196</v>
       </c>
       <c r="S11">
-        <v>0.0006038881330889589</v>
+        <v>0.0005948152150953563</v>
       </c>
       <c r="T11">
-        <v>0.0006055243353811178</v>
+        <v>0.0005983058645643346</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>122.7966383333333</v>
+        <v>120.5783256666667</v>
       </c>
       <c r="H12">
-        <v>368.389915</v>
+        <v>361.734977</v>
       </c>
       <c r="I12">
-        <v>0.4945625729665479</v>
+        <v>0.4241456220035762</v>
       </c>
       <c r="J12">
-        <v>0.4952321150460967</v>
+        <v>0.4253883423266084</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2066323333333333</v>
+        <v>0.8247399999999999</v>
       </c>
       <c r="N12">
-        <v>0.619897</v>
+        <v>2.47422</v>
       </c>
       <c r="O12">
-        <v>0.0008322102283778431</v>
+        <v>0.00290110066097835</v>
       </c>
       <c r="P12">
-        <v>0.0008333368800845979</v>
+        <v>0.0029096007056883</v>
       </c>
       <c r="Q12">
-        <v>25.37375590430611</v>
+        <v>99.44576831032666</v>
       </c>
       <c r="R12">
-        <v>228.363803138755</v>
+        <v>895.0119147929399</v>
       </c>
       <c r="S12">
-        <v>0.0004115800317956246</v>
+        <v>0.001230489144345648</v>
       </c>
       <c r="T12">
-        <v>0.0004126951856702108</v>
+        <v>0.001237710221025076</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>122.7966383333333</v>
+        <v>120.5783256666667</v>
       </c>
       <c r="H13">
-        <v>368.389915</v>
+        <v>361.734977</v>
       </c>
       <c r="I13">
-        <v>0.4945625729665479</v>
+        <v>0.4241456220035762</v>
       </c>
       <c r="J13">
-        <v>0.4952321150460967</v>
+        <v>0.4253883423266084</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,22 +1243,22 @@
         <v>0.900838</v>
       </c>
       <c r="O13">
-        <v>0.001209372843732813</v>
+        <v>0.001056260848766244</v>
       </c>
       <c r="P13">
-        <v>0.001211010100680676</v>
+        <v>0.001059355627434439</v>
       </c>
       <c r="Q13">
-        <v>36.87329269430777</v>
+        <v>36.20717924563623</v>
       </c>
       <c r="R13">
-        <v>331.85963424877</v>
+        <v>325.864613210726</v>
       </c>
       <c r="S13">
-        <v>0.0005981105452723708</v>
+        <v>0.0004480084146979837</v>
       </c>
       <c r="T13">
-        <v>0.0005997310935022776</v>
+        <v>0.0004506375342887</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>122.7966383333333</v>
+        <v>120.5783256666667</v>
       </c>
       <c r="H14">
-        <v>368.389915</v>
+        <v>361.734977</v>
       </c>
       <c r="I14">
-        <v>0.4945625729665479</v>
+        <v>0.4241456220035762</v>
       </c>
       <c r="J14">
-        <v>0.4952321150460967</v>
+        <v>0.4253883423266084</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>122.7966383333333</v>
+        <v>120.5783256666667</v>
       </c>
       <c r="N14">
-        <v>368.389915</v>
+        <v>361.734977</v>
       </c>
       <c r="O14">
-        <v>0.4945625729665479</v>
+        <v>0.4241456220035762</v>
       </c>
       <c r="P14">
-        <v>0.4952321150460967</v>
+        <v>0.4253883423266084</v>
       </c>
       <c r="Q14">
-        <v>15079.01438596747</v>
+        <v>14539.13262057673</v>
       </c>
       <c r="R14">
-        <v>135711.1294737072</v>
+        <v>130852.1935851905</v>
       </c>
       <c r="S14">
-        <v>0.244592138579292</v>
+        <v>0.1798995086648005</v>
       </c>
       <c r="T14">
-        <v>0.2452548477730303</v>
+        <v>0.1809552417873798</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>122.7966383333333</v>
+        <v>120.5783256666667</v>
       </c>
       <c r="H15">
-        <v>368.389915</v>
+        <v>361.734977</v>
       </c>
       <c r="I15">
-        <v>0.4945625729665479</v>
+        <v>0.4241456220035762</v>
       </c>
       <c r="J15">
-        <v>0.4952321150460967</v>
+        <v>0.4253883423266084</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.0070605</v>
+        <v>2.491514</v>
       </c>
       <c r="N15">
-        <v>2.014121</v>
+        <v>4.983028</v>
       </c>
       <c r="O15">
-        <v>0.004055928881872173</v>
+        <v>0.008764135257459093</v>
       </c>
       <c r="P15">
-        <v>0.002707613216797097</v>
+        <v>0.005859875752869413</v>
       </c>
       <c r="Q15">
-        <v>123.6636439982858</v>
+        <v>300.4225864950594</v>
       </c>
       <c r="R15">
-        <v>741.9818639897148</v>
+        <v>1802.535518970356</v>
       </c>
       <c r="S15">
-        <v>0.002005910623588035</v>
+        <v>0.00371726960009846</v>
       </c>
       <c r="T15">
-        <v>0.001340897020081192</v>
+        <v>0.002492722832753006</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>122.7966383333333</v>
+        <v>120.5783256666667</v>
       </c>
       <c r="H16">
-        <v>368.389915</v>
+        <v>361.734977</v>
       </c>
       <c r="I16">
-        <v>0.4945625729665479</v>
+        <v>0.4241456220035762</v>
       </c>
       <c r="J16">
-        <v>0.4952321150460967</v>
+        <v>0.4253883423266084</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>123.982821</v>
+        <v>160.0903473333333</v>
       </c>
       <c r="N16">
-        <v>371.9484630000001</v>
+        <v>480.271042</v>
       </c>
       <c r="O16">
-        <v>0.4993399150794692</v>
+        <v>0.5631328812292201</v>
       </c>
       <c r="P16">
-        <v>0.500015924756341</v>
+        <v>0.5647828255873993</v>
       </c>
       <c r="Q16">
-        <v>15224.67362988341</v>
+        <v>19303.42603684845</v>
       </c>
       <c r="R16">
-        <v>137022.0626689506</v>
+        <v>173730.8343316361</v>
       </c>
       <c r="S16">
-        <v>0.2469548331865999</v>
+        <v>0.2388503461796336</v>
       </c>
       <c r="T16">
-        <v>0.2476239439738127</v>
+        <v>0.2402520299511618</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.0070605</v>
+        <v>2.491514</v>
       </c>
       <c r="H17">
-        <v>2.014121</v>
+        <v>4.983028</v>
       </c>
       <c r="I17">
-        <v>0.004055928881872173</v>
+        <v>0.008764135257459093</v>
       </c>
       <c r="J17">
-        <v>0.002707613216797097</v>
+        <v>0.005859875752869413</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2066323333333333</v>
+        <v>0.8247399999999999</v>
       </c>
       <c r="N17">
-        <v>0.619897</v>
+        <v>2.47422</v>
       </c>
       <c r="O17">
-        <v>0.0008322102283778431</v>
+        <v>0.00290110066097835</v>
       </c>
       <c r="P17">
-        <v>0.0008333368800845979</v>
+        <v>0.0029096007056883</v>
       </c>
       <c r="Q17">
-        <v>0.2080912609228333</v>
+        <v>2.05485125636</v>
       </c>
       <c r="R17">
-        <v>1.248547565537</v>
+        <v>12.32910753816</v>
       </c>
       <c r="S17">
-        <v>3.375385501067131E-06</v>
+        <v>2.542563858831824E-05</v>
       </c>
       <c r="T17">
-        <v>2.256353950561515E-06</v>
+        <v>1.70498986257946E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,16 +1529,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.0070605</v>
+        <v>2.491514</v>
       </c>
       <c r="H18">
-        <v>2.014121</v>
+        <v>4.983028</v>
       </c>
       <c r="I18">
-        <v>0.004055928881872173</v>
+        <v>0.008764135257459093</v>
       </c>
       <c r="J18">
-        <v>0.002707613216797097</v>
+        <v>0.005859875752869413</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,22 +1553,22 @@
         <v>0.900838</v>
       </c>
       <c r="O18">
-        <v>0.001209372843732813</v>
+        <v>0.001056260848766244</v>
       </c>
       <c r="P18">
-        <v>0.001211010100680676</v>
+        <v>0.001059355627434439</v>
       </c>
       <c r="Q18">
-        <v>0.3023994555663333</v>
+        <v>0.7481501629106667</v>
       </c>
       <c r="R18">
-        <v>1.814396733398</v>
+        <v>4.488900977464001</v>
       </c>
       <c r="S18">
-        <v>4.905130245847797E-06</v>
+        <v>9.257212945745902E-06</v>
       </c>
       <c r="T18">
-        <v>3.278946954277781E-06</v>
+        <v>6.207692354868831E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,16 +1591,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.0070605</v>
+        <v>2.491514</v>
       </c>
       <c r="H19">
-        <v>2.014121</v>
+        <v>4.983028</v>
       </c>
       <c r="I19">
-        <v>0.004055928881872173</v>
+        <v>0.008764135257459093</v>
       </c>
       <c r="J19">
-        <v>0.002707613216797097</v>
+        <v>0.005859875752869413</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1609,28 +1609,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>122.7966383333333</v>
+        <v>120.5783256666667</v>
       </c>
       <c r="N19">
-        <v>368.389915</v>
+        <v>361.734977</v>
       </c>
       <c r="O19">
-        <v>0.4945625729665479</v>
+        <v>0.4241456220035762</v>
       </c>
       <c r="P19">
-        <v>0.4952321150460967</v>
+        <v>0.4253883423266084</v>
       </c>
       <c r="Q19">
-        <v>123.6636439982858</v>
+        <v>300.4225864950594</v>
       </c>
       <c r="R19">
-        <v>741.9818639897148</v>
+        <v>1802.535518970356</v>
       </c>
       <c r="S19">
-        <v>0.002005910623588035</v>
+        <v>0.00371726960009846</v>
       </c>
       <c r="T19">
-        <v>0.001340897020081192</v>
+        <v>0.002492722832753006</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,16 +1653,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.0070605</v>
+        <v>2.491514</v>
       </c>
       <c r="H20">
-        <v>2.014121</v>
+        <v>4.983028</v>
       </c>
       <c r="I20">
-        <v>0.004055928881872173</v>
+        <v>0.008764135257459093</v>
       </c>
       <c r="J20">
-        <v>0.002707613216797097</v>
+        <v>0.005859875752869413</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1671,28 +1671,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.0070605</v>
+        <v>2.491514</v>
       </c>
       <c r="N20">
-        <v>2.014121</v>
+        <v>4.983028</v>
       </c>
       <c r="O20">
-        <v>0.004055928881872173</v>
+        <v>0.008764135257459093</v>
       </c>
       <c r="P20">
-        <v>0.002707613216797097</v>
+        <v>0.005859875752869413</v>
       </c>
       <c r="Q20">
-        <v>1.01417085066025</v>
+        <v>6.207642012196</v>
       </c>
       <c r="R20">
-        <v>4.056683402640999</v>
+        <v>24.830568048784</v>
       </c>
       <c r="S20">
-        <v>1.645055909480485E-05</v>
+        <v>7.681006681103757E-05</v>
       </c>
       <c r="T20">
-        <v>7.331169331774324E-06</v>
+        <v>3.433814383906687E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,16 +1715,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.0070605</v>
+        <v>2.491514</v>
       </c>
       <c r="H21">
-        <v>2.014121</v>
+        <v>4.983028</v>
       </c>
       <c r="I21">
-        <v>0.004055928881872173</v>
+        <v>0.008764135257459093</v>
       </c>
       <c r="J21">
-        <v>0.002707613216797097</v>
+        <v>0.005859875752869413</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1733,28 +1733,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>123.982821</v>
+        <v>160.0903473333333</v>
       </c>
       <c r="N21">
-        <v>371.9484630000001</v>
+        <v>480.271042</v>
       </c>
       <c r="O21">
-        <v>0.4993399150794692</v>
+        <v>0.5631328812292201</v>
       </c>
       <c r="P21">
-        <v>0.500015924756341</v>
+        <v>0.5647828255873993</v>
       </c>
       <c r="Q21">
-        <v>124.8582017076705</v>
+        <v>398.8673416458627</v>
       </c>
       <c r="R21">
-        <v>749.149210246023</v>
+        <v>2393.204049875176</v>
       </c>
       <c r="S21">
-        <v>0.002025287183442417</v>
+        <v>0.004935372739015532</v>
       </c>
       <c r="T21">
-        <v>0.001353849726479292</v>
+        <v>0.003309557185296676</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,16 +1777,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>123.982821</v>
+        <v>160.0903473333333</v>
       </c>
       <c r="H22">
-        <v>371.9484630000001</v>
+        <v>480.271042</v>
       </c>
       <c r="I22">
-        <v>0.4993399150794692</v>
+        <v>0.5631328812292201</v>
       </c>
       <c r="J22">
-        <v>0.500015924756341</v>
+        <v>0.5647828255873993</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1795,28 +1795,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2066323333333333</v>
+        <v>0.8247399999999999</v>
       </c>
       <c r="N22">
-        <v>0.619897</v>
+        <v>2.47422</v>
       </c>
       <c r="O22">
-        <v>0.0008322102283778431</v>
+        <v>0.00290110066097835</v>
       </c>
       <c r="P22">
-        <v>0.0008333368800845979</v>
+        <v>0.0029096007056883</v>
       </c>
       <c r="Q22">
-        <v>25.618859596479</v>
+        <v>132.0329130596933</v>
       </c>
       <c r="R22">
-        <v>230.5697363683111</v>
+        <v>1188.29621753724</v>
       </c>
       <c r="S22">
-        <v>0.0004155557847664579</v>
+        <v>0.001633705173952733</v>
       </c>
       <c r="T22">
-        <v>0.0004166817107290643</v>
+        <v>0.001643292507889729</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,16 +1839,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>123.982821</v>
+        <v>160.0903473333333</v>
       </c>
       <c r="H23">
-        <v>371.9484630000001</v>
+        <v>480.271042</v>
       </c>
       <c r="I23">
-        <v>0.4993399150794692</v>
+        <v>0.5631328812292201</v>
       </c>
       <c r="J23">
-        <v>0.500015924756341</v>
+        <v>0.5647828255873993</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,22 +1863,22 @@
         <v>0.900838</v>
       </c>
       <c r="O23">
-        <v>0.001209372843732813</v>
+        <v>0.001056260848766244</v>
       </c>
       <c r="P23">
-        <v>0.001211010100680676</v>
+        <v>0.001059355627434439</v>
       </c>
       <c r="Q23">
-        <v>37.229478834666</v>
+        <v>48.07182277035511</v>
       </c>
       <c r="R23">
-        <v>335.0653095119941</v>
+        <v>432.646404933196</v>
       </c>
       <c r="S23">
-        <v>0.0006038881330889589</v>
+        <v>0.0005948152150953563</v>
       </c>
       <c r="T23">
-        <v>0.0006055243353811178</v>
+        <v>0.0005983058645643346</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,16 +1901,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>123.982821</v>
+        <v>160.0903473333333</v>
       </c>
       <c r="H24">
-        <v>371.9484630000001</v>
+        <v>480.271042</v>
       </c>
       <c r="I24">
-        <v>0.4993399150794692</v>
+        <v>0.5631328812292201</v>
       </c>
       <c r="J24">
-        <v>0.500015924756341</v>
+        <v>0.5647828255873993</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1919,28 +1919,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>122.7966383333333</v>
+        <v>120.5783256666667</v>
       </c>
       <c r="N24">
-        <v>368.389915</v>
+        <v>361.734977</v>
       </c>
       <c r="O24">
-        <v>0.4945625729665479</v>
+        <v>0.4241456220035762</v>
       </c>
       <c r="P24">
-        <v>0.4952321150460967</v>
+        <v>0.4253883423266084</v>
       </c>
       <c r="Q24">
-        <v>15224.67362988341</v>
+        <v>19303.42603684845</v>
       </c>
       <c r="R24">
-        <v>137022.0626689506</v>
+        <v>173730.8343316361</v>
       </c>
       <c r="S24">
-        <v>0.2469548331865999</v>
+        <v>0.2388503461796336</v>
       </c>
       <c r="T24">
-        <v>0.2476239439738127</v>
+        <v>0.2402520299511618</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,16 +1963,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>123.982821</v>
+        <v>160.0903473333333</v>
       </c>
       <c r="H25">
-        <v>371.9484630000001</v>
+        <v>480.271042</v>
       </c>
       <c r="I25">
-        <v>0.4993399150794692</v>
+        <v>0.5631328812292201</v>
       </c>
       <c r="J25">
-        <v>0.500015924756341</v>
+        <v>0.5647828255873993</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1981,28 +1981,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.0070605</v>
+        <v>2.491514</v>
       </c>
       <c r="N25">
-        <v>2.014121</v>
+        <v>4.983028</v>
       </c>
       <c r="O25">
-        <v>0.004055928881872173</v>
+        <v>0.008764135257459093</v>
       </c>
       <c r="P25">
-        <v>0.002707613216797097</v>
+        <v>0.005859875752869413</v>
       </c>
       <c r="Q25">
-        <v>124.8582017076705</v>
+        <v>398.8673416458627</v>
       </c>
       <c r="R25">
-        <v>749.149210246023</v>
+        <v>2393.204049875176</v>
       </c>
       <c r="S25">
-        <v>0.002025287183442417</v>
+        <v>0.004935372739015532</v>
       </c>
       <c r="T25">
-        <v>0.001353849726479292</v>
+        <v>0.003309557185296676</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,16 +2025,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>123.982821</v>
+        <v>160.0903473333333</v>
       </c>
       <c r="H26">
-        <v>371.9484630000001</v>
+        <v>480.271042</v>
       </c>
       <c r="I26">
-        <v>0.4993399150794692</v>
+        <v>0.5631328812292201</v>
       </c>
       <c r="J26">
-        <v>0.500015924756341</v>
+        <v>0.5647828255873993</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2043,28 +2043,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>123.982821</v>
+        <v>160.0903473333333</v>
       </c>
       <c r="N26">
-        <v>371.9484630000001</v>
+        <v>480.271042</v>
       </c>
       <c r="O26">
-        <v>0.4993399150794692</v>
+        <v>0.5631328812292201</v>
       </c>
       <c r="P26">
-        <v>0.500015924756341</v>
+        <v>0.5647828255873993</v>
       </c>
       <c r="Q26">
-        <v>15371.73990311804</v>
+        <v>25628.91930930731</v>
       </c>
       <c r="R26">
-        <v>138345.6591280624</v>
+        <v>230660.2737837658</v>
       </c>
       <c r="S26">
-        <v>0.2493403507915715</v>
+        <v>0.3171186419215229</v>
       </c>
       <c r="T26">
-        <v>0.2500159250099389</v>
+        <v>0.3189796400784867</v>
       </c>
     </row>
   </sheetData>
